--- a/산학 프로젝트.xlsx
+++ b/산학 프로젝트.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b680f8d01e4353c/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GitHub\PlaceTimePick\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24E59C35-4E50-46A5-8F2C-81ED1D3A1B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7C073D-BA71-4DDA-872D-53F7336A12F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="14980" windowHeight="17850" xr2:uid="{84CA6789-3C8A-4E7B-B585-26ADEFAF9005}"/>
+    <workbookView xWindow="14710" yWindow="0" windowWidth="14980" windowHeight="8970" xr2:uid="{84CA6789-3C8A-4E7B-B585-26ADEFAF9005}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
   <si>
     <t>샘플</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +135,184 @@
   </si>
   <si>
     <t>invi_8</t>
+  </si>
+  <si>
+    <t>추출한 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도로명 주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지번주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우편번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전라북도 군산 미성로 512</t>
+  </si>
+  <si>
+    <t>전라북도 군산시 미성로 512 (미룡동)</t>
+  </si>
+  <si>
+    <t>전라북도 군산시 미룡동 606-27 은파장례문화원</t>
+  </si>
+  <si>
+    <t xml:space="preserve">분향소 정보 - 은파장례문화원 호 실 : 3호실 ( 2층 ) </t>
+  </si>
+  <si>
+    <t>서울특별시 노원 하계 279-5</t>
+  </si>
+  <si>
+    <t>서울특별시 노원구 공릉로 327 (하계동)</t>
+  </si>
+  <si>
+    <t>서울특별시 노원구 하계동 279-5 을지병원</t>
+  </si>
+  <si>
+    <t>01830</t>
+  </si>
+  <si>
+    <t>올지병원 장례식장 특2호실</t>
+  </si>
+  <si>
+    <t>서울특별시 서초 반포대로 222</t>
+  </si>
+  <si>
+    <t>서울특별시 서초구 반포대로 222 (반포동)</t>
+  </si>
+  <si>
+    <t>서울특별시 서초구 반포동 505 가톨릭중앙의료원 새병원 및 성의회관</t>
+  </si>
+  <si>
+    <t>06591</t>
+  </si>
+  <si>
+    <t>범합하고 가운데 맞층 고도일병원 보내시는 분올 고도일병원 병원장고도일 으로 보내주세요 반소 : 서울성모병원장례 식장 10호실 반소 : 서울성모병원장례 식장 10호실</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 수정 강남</t>
+  </si>
+  <si>
+    <t xml:space="preserve">반 소 : 강남 세브관스 장례식장 5호실 </t>
+  </si>
+  <si>
+    <t>인천광역시 계양 아나지로 541</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 아나지로 541 (서운동)</t>
+  </si>
+  <si>
+    <t>인천광역시 계양구 서운동 174 새천년 장례식장</t>
+  </si>
+  <si>
+    <t>21075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['새천년장례식장 재천년장례 식장 303호 장례지도사 장례지도사 : 최중철 </t>
+  </si>
+  <si>
+    <t>경기도 수원 우만 147-7</t>
+  </si>
+  <si>
+    <t>경기도 수원시 팔달구 중부대로 181 (우만동)</t>
+  </si>
+  <si>
+    <t>경기도 수원시 팔달구 우만동 147-7</t>
+  </si>
+  <si>
+    <t>16494</t>
+  </si>
+  <si>
+    <t>이용 추 \'수원고용센터 동수원병원. 라마다호텔 앞\' 하차 3007번 이용 추 \'아주대병원입구\' 하차 잠실역 6번규구 앞 1007-번 이용 후 \'아주대병원입구\' 하차 7000/7001번 이용 후 \'아주머병원입구 더아리엘 5층 스카이가듣풀 아주대병원입구 정거장 암 버스 노선 삼성디지털프라자 뒤 세운주차장 동수왼병원 주차장 - 2간 무료</t>
+  </si>
+  <si>
+    <t>경기도 동안</t>
+  </si>
+  <si>
+    <t>디노체웨딩홀 6층</t>
+  </si>
+  <si>
+    <t>부산광역시 수영</t>
+  </si>
+  <si>
+    <t>광주광역시 서구 광천 562-14</t>
+  </si>
+  <si>
+    <t>광주광역시 서구 죽봉대로 153 (광천동)</t>
+  </si>
+  <si>
+    <t>광주광역시 서구 광천동 562-14</t>
+  </si>
+  <si>
+    <t>61914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">웨딩그룹워터스 광주 "웨딩그룹워터스 광주" 또는 웨당그룹 위디스 5층 엘런올 </t>
+  </si>
+  <si>
+    <t>대전광역시 유성 용산 579</t>
+  </si>
+  <si>
+    <t>대전광역시 유성구 테크노중앙로 161 (용산동)</t>
+  </si>
+  <si>
+    <t>대전광역시 유성구 용산동 579 호텔 스카이파크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">루이비스건번선 (대전) 아모리스홀 대전광역시 유성구 용산동 579번지 (SKY호텔 1층) </t>
+  </si>
+  <si>
+    <t>광주광역시 서구 상무누리로 59</t>
+  </si>
+  <si>
+    <t>광주광역시 서구 상무누리로 59 (치평동)</t>
+  </si>
+  <si>
+    <t>광주광역시 서구 치평동 268-18 라붐웨딩홀</t>
+  </si>
+  <si>
+    <t>61955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">라분워딩올 3층 </t>
+  </si>
+  <si>
+    <t>서울특별시 서초 방배로 47</t>
+  </si>
+  <si>
+    <t>서울특별시 서초구 방배로 47 (방배동)</t>
+  </si>
+  <si>
+    <t>서울특별시 서초구 방배동 1032</t>
+  </si>
+  <si>
+    <t>06695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">누리시아워당 아모르홀 </t>
+  </si>
+  <si>
+    <t>광주광역시 광산 임방울대로 5517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">드메로웨딩볼 드메로웨딩흘 베일리흘 </t>
   </si>
 </sst>
 </file>
@@ -525,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DEB6AE-35C8-4327-A914-CFAC88142A43}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A2:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -536,123 +714,222 @@
     <col min="1" max="1" width="7.83203125" customWidth="1"/>
     <col min="2" max="2" width="5.25" customWidth="1"/>
     <col min="3" max="3" width="6.75" customWidth="1"/>
-    <col min="4" max="4" width="50.75" customWidth="1"/>
-    <col min="5" max="5" width="17.4140625" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.4140625" customWidth="1"/>
+    <col min="5" max="5" width="39.9140625" customWidth="1"/>
+    <col min="6" max="6" width="40.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="44.25" customWidth="1"/>
+    <col min="9" max="9" width="45.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="3">
+        <v>54150</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4">
+      <c r="L3" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="5">
+      <c r="L4" s="5">
         <v>0.76919999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="4">
+      <c r="L5" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6" s="3"/>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>2</v>
@@ -661,63 +938,171 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9" s="3"/>
+      <c r="H9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10" s="3"/>
+      <c r="I10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15"/>
+      <c r="G15" s="3"/>
+      <c r="H15" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
